--- a/data/air_info/南京-北京.xlsx
+++ b/data/air_info/南京-北京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18F835B-AD93-4121-B2AF-207801466E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA54C27-70E0-41E1-ADF5-87071699118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1820</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A321CA 1818</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>东航经济舱Airbus A320MU 2841</t>
   </si>
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1562</t>
   </si>
   <si>
@@ -88,6 +79,17 @@
   </si>
   <si>
     <t>机票价格</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +446,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -455,31 +457,30 @@
     <col min="4" max="4" width="21.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="53.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -487,23 +488,22 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>0.44444444444444442</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(2000,3500)</f>
-        <v>2481</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -511,23 +511,22 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>0.56944444444444442</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" ca="1" si="0">RANDBETWEEN(2000,3500)</f>
-        <v>3024</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -535,23 +534,22 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>0.66319444444444442</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2258</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,23 +557,22 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>0.77430555555555558</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2115</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,23 +580,22 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3374</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,23 +603,22 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>0.95138888888888884</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2557</v>
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
